--- a/stock_historical_data/1wk/M&M.NS.xlsx
+++ b/stock_historical_data/1wk/M&M.NS.xlsx
@@ -83573,7 +83573,9 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/M&M.NS.xlsx
+++ b/stock_historical_data/1wk/M&M.NS.xlsx
@@ -79172,7 +79172,9 @@
       <c r="P1485" t="n">
         <v>0</v>
       </c>
-      <c r="Q1485" t="inlineStr"/>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/M&M.NS.xlsx
+++ b/stock_historical_data/1wk/M&M.NS.xlsx
@@ -83685,7 +83685,9 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/M&M.NS.xlsx
+++ b/stock_historical_data/1wk/M&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1486"/>
+  <dimension ref="A1:R1488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -83688,6 +83688,114 @@
       <c r="R1486" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>2928.60009765625</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>3013.5</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>2825.050048828125</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>2839.949951171875</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>2839.949951171875</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>20824689</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>2836.5</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>2947</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>2793.050048828125</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>2866.64990234375</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>2866.64990234375</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>17341097</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/M&M.NS.xlsx
+++ b/stock_historical_data/1wk/M&M.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1488"/>
+  <dimension ref="A1:R1498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3600,13 +3600,13 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -4334,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -4558,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -4670,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -5118,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -5622,7 +5622,7 @@
         <v>2</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -5790,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -7078,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -7638,7 +7638,7 @@
         <v>2</v>
       </c>
       <c r="R128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -8534,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="R144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -8870,7 +8870,7 @@
         <v>2</v>
       </c>
       <c r="R150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -9150,7 +9150,7 @@
         <v>1</v>
       </c>
       <c r="R155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -9374,7 +9374,7 @@
         <v>2</v>
       </c>
       <c r="R159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -10158,7 +10158,7 @@
         <v>2</v>
       </c>
       <c r="R173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="R179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -10830,7 +10830,7 @@
         <v>1</v>
       </c>
       <c r="R185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -11502,7 +11502,7 @@
         <v>2</v>
       </c>
       <c r="R197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -11894,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="R204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -12286,7 +12286,7 @@
         <v>2</v>
       </c>
       <c r="R211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -12958,7 +12958,7 @@
         <v>2</v>
       </c>
       <c r="R223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -13742,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="R237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -14246,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="R246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -14638,7 +14638,7 @@
         <v>2</v>
       </c>
       <c r="R253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -15030,7 +15030,7 @@
         <v>1</v>
       </c>
       <c r="R260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -15366,7 +15366,7 @@
         <v>2</v>
       </c>
       <c r="R266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -15478,7 +15478,7 @@
         <v>1</v>
       </c>
       <c r="R268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -15926,7 +15926,7 @@
         <v>2</v>
       </c>
       <c r="R276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -16318,7 +16318,7 @@
         <v>1</v>
       </c>
       <c r="R283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -16430,7 +16430,7 @@
         <v>2</v>
       </c>
       <c r="R285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -17662,7 +17662,7 @@
         <v>1</v>
       </c>
       <c r="R307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -18390,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="R320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -18782,7 +18782,7 @@
         <v>2</v>
       </c>
       <c r="R327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328">
@@ -19678,7 +19678,7 @@
         <v>1</v>
       </c>
       <c r="R343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -19958,7 +19958,7 @@
         <v>2</v>
       </c>
       <c r="R348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -21358,7 +21358,7 @@
         <v>2</v>
       </c>
       <c r="R373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374">
@@ -21582,7 +21582,7 @@
         <v>1</v>
       </c>
       <c r="R377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -21862,7 +21862,7 @@
         <v>2</v>
       </c>
       <c r="R382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383">
@@ -22086,7 +22086,7 @@
         <v>1</v>
       </c>
       <c r="R386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -24662,7 +24662,7 @@
         <v>2</v>
       </c>
       <c r="R432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433">
@@ -24942,7 +24942,7 @@
         <v>1</v>
       </c>
       <c r="R437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -25334,7 +25334,7 @@
         <v>2</v>
       </c>
       <c r="R444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445">
@@ -25390,7 +25390,7 @@
         <v>1</v>
       </c>
       <c r="R445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -25782,7 +25782,7 @@
         <v>2</v>
       </c>
       <c r="R452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453">
@@ -26678,7 +26678,7 @@
         <v>1</v>
       </c>
       <c r="R468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -27518,7 +27518,7 @@
         <v>1</v>
       </c>
       <c r="R483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -27574,7 +27574,7 @@
         <v>2</v>
       </c>
       <c r="R484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485">
@@ -28134,7 +28134,7 @@
         <v>1</v>
       </c>
       <c r="R494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -28862,7 +28862,7 @@
         <v>2</v>
       </c>
       <c r="R507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508">
@@ -29422,7 +29422,7 @@
         <v>2</v>
       </c>
       <c r="R517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518">
@@ -29646,7 +29646,7 @@
         <v>1</v>
       </c>
       <c r="R521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
@@ -31158,7 +31158,7 @@
         <v>2</v>
       </c>
       <c r="R548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549">
@@ -31438,7 +31438,7 @@
         <v>1</v>
       </c>
       <c r="R553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -31774,7 +31774,7 @@
         <v>1</v>
       </c>
       <c r="R559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -32894,7 +32894,7 @@
         <v>1</v>
       </c>
       <c r="R579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -33174,7 +33174,7 @@
         <v>2</v>
       </c>
       <c r="R584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585">
@@ -33566,7 +33566,7 @@
         <v>1</v>
       </c>
       <c r="R591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -34350,7 +34350,7 @@
         <v>1</v>
       </c>
       <c r="R605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -34630,7 +34630,7 @@
         <v>2</v>
       </c>
       <c r="R610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -34910,7 +34910,7 @@
         <v>1</v>
       </c>
       <c r="R615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
@@ -35358,7 +35358,7 @@
         <v>2</v>
       </c>
       <c r="R623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624">
@@ -35638,7 +35638,7 @@
         <v>1</v>
       </c>
       <c r="R628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629">
@@ -35974,7 +35974,7 @@
         <v>2</v>
       </c>
       <c r="R634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -36142,7 +36142,7 @@
         <v>1</v>
       </c>
       <c r="R637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
@@ -36702,7 +36702,7 @@
         <v>2</v>
       </c>
       <c r="R647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648">
@@ -36758,7 +36758,7 @@
         <v>1</v>
       </c>
       <c r="R648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
@@ -37430,7 +37430,7 @@
         <v>1</v>
       </c>
       <c r="R660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -37990,7 +37990,7 @@
         <v>2</v>
       </c>
       <c r="R670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671">
@@ -38662,7 +38662,7 @@
         <v>1</v>
       </c>
       <c r="R682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683">
@@ -40174,7 +40174,7 @@
         <v>2</v>
       </c>
       <c r="R709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710">
@@ -40454,7 +40454,7 @@
         <v>1</v>
       </c>
       <c r="R714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
@@ -40622,7 +40622,7 @@
         <v>2</v>
       </c>
       <c r="R717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718">
@@ -41910,7 +41910,7 @@
         <v>2</v>
       </c>
       <c r="R740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741">
@@ -42134,7 +42134,7 @@
         <v>1</v>
       </c>
       <c r="R744" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745">
@@ -42358,7 +42358,7 @@
         <v>2</v>
       </c>
       <c r="R748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749">
@@ -43758,7 +43758,7 @@
         <v>1</v>
       </c>
       <c r="R773" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774">
@@ -44318,7 +44318,7 @@
         <v>2</v>
       </c>
       <c r="R783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -44598,7 +44598,7 @@
         <v>1</v>
       </c>
       <c r="R788" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789">
@@ -45214,7 +45214,7 @@
         <v>1</v>
       </c>
       <c r="R799" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800">
@@ -45662,7 +45662,7 @@
         <v>2</v>
       </c>
       <c r="R807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808">
@@ -46110,7 +46110,7 @@
         <v>1</v>
       </c>
       <c r="R815" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816">
@@ -46502,7 +46502,7 @@
         <v>1</v>
       </c>
       <c r="R822" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823">
@@ -47118,7 +47118,7 @@
         <v>2</v>
       </c>
       <c r="R833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834">
@@ -48070,7 +48070,7 @@
         <v>2</v>
       </c>
       <c r="R850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851">
@@ -48574,7 +48574,7 @@
         <v>2</v>
       </c>
       <c r="R859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860">
@@ -48742,7 +48742,7 @@
         <v>1</v>
       </c>
       <c r="R862" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863">
@@ -49302,7 +49302,7 @@
         <v>1</v>
       </c>
       <c r="R872" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873">
@@ -50478,7 +50478,7 @@
         <v>2</v>
       </c>
       <c r="R893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894">
@@ -51150,7 +51150,7 @@
         <v>2</v>
       </c>
       <c r="R905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906">
@@ -51430,7 +51430,7 @@
         <v>1</v>
       </c>
       <c r="R910" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911">
@@ -51710,7 +51710,7 @@
         <v>2</v>
       </c>
       <c r="R915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916">
@@ -52494,7 +52494,7 @@
         <v>1</v>
       </c>
       <c r="R929" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930">
@@ -53110,7 +53110,7 @@
         <v>1</v>
       </c>
       <c r="R940" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941">
@@ -53446,7 +53446,7 @@
         <v>2</v>
       </c>
       <c r="R946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947">
@@ -54678,7 +54678,7 @@
         <v>2</v>
       </c>
       <c r="R968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969">
@@ -55406,7 +55406,7 @@
         <v>2</v>
       </c>
       <c r="R981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982">
@@ -55798,7 +55798,7 @@
         <v>1</v>
       </c>
       <c r="R988" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989">
@@ -56190,7 +56190,7 @@
         <v>2</v>
       </c>
       <c r="R995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996">
@@ -56582,7 +56582,7 @@
         <v>2</v>
       </c>
       <c r="R1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003">
@@ -57366,7 +57366,7 @@
         <v>1</v>
       </c>
       <c r="R1016" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017">
@@ -58150,7 +58150,7 @@
         <v>2</v>
       </c>
       <c r="R1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031">
@@ -59830,7 +59830,7 @@
         <v>2</v>
       </c>
       <c r="R1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061">
@@ -60278,7 +60278,7 @@
         <v>2</v>
       </c>
       <c r="R1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -61118,7 +61118,7 @@
         <v>2</v>
       </c>
       <c r="R1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084">
@@ -62238,7 +62238,7 @@
         <v>1</v>
       </c>
       <c r="R1103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104">
@@ -62742,7 +62742,7 @@
         <v>2</v>
       </c>
       <c r="R1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1113">
@@ -63134,7 +63134,7 @@
         <v>1</v>
       </c>
       <c r="R1119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -63582,7 +63582,7 @@
         <v>2</v>
       </c>
       <c r="R1127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128">
@@ -63974,7 +63974,7 @@
         <v>2</v>
       </c>
       <c r="R1134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135">
@@ -64422,7 +64422,7 @@
         <v>1</v>
       </c>
       <c r="R1142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143">
@@ -65094,7 +65094,7 @@
         <v>2</v>
       </c>
       <c r="R1154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1155">
@@ -65430,7 +65430,7 @@
         <v>2</v>
       </c>
       <c r="R1160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1161">
@@ -65598,7 +65598,7 @@
         <v>1</v>
       </c>
       <c r="R1163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1164">
@@ -66382,7 +66382,7 @@
         <v>2</v>
       </c>
       <c r="R1177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1178">
@@ -67110,7 +67110,7 @@
         <v>2</v>
       </c>
       <c r="R1190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1191">
@@ -67446,7 +67446,7 @@
         <v>1</v>
       </c>
       <c r="R1196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197">
@@ -68006,7 +68006,7 @@
         <v>2</v>
       </c>
       <c r="R1206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1207">
@@ -68510,7 +68510,7 @@
         <v>1</v>
       </c>
       <c r="R1215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216">
@@ -68734,7 +68734,7 @@
         <v>2</v>
       </c>
       <c r="R1219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1220">
@@ -69182,7 +69182,7 @@
         <v>1</v>
       </c>
       <c r="R1227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228">
@@ -69910,7 +69910,7 @@
         <v>1</v>
       </c>
       <c r="R1240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241">
@@ -70526,7 +70526,7 @@
         <v>2</v>
       </c>
       <c r="R1251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1252">
@@ -71310,7 +71310,7 @@
         <v>2</v>
       </c>
       <c r="R1265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1266">
@@ -74278,7 +74278,7 @@
         <v>2</v>
       </c>
       <c r="R1318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1319">
@@ -74950,7 +74950,7 @@
         <v>1</v>
       </c>
       <c r="R1330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1331">
@@ -75118,7 +75118,7 @@
         <v>2</v>
       </c>
       <c r="R1333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1334">
@@ -75790,7 +75790,7 @@
         <v>2</v>
       </c>
       <c r="R1345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1346">
@@ -76518,7 +76518,7 @@
         <v>2</v>
       </c>
       <c r="R1358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1359">
@@ -77022,7 +77022,7 @@
         <v>2</v>
       </c>
       <c r="R1367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1368">
@@ -77414,7 +77414,7 @@
         <v>1</v>
       </c>
       <c r="R1374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1375">
@@ -78870,7 +78870,7 @@
         <v>2</v>
       </c>
       <c r="R1400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1401">
@@ -79206,7 +79206,7 @@
         <v>1</v>
       </c>
       <c r="R1406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1407">
@@ -79318,7 +79318,7 @@
         <v>2</v>
       </c>
       <c r="R1408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1409">
@@ -80158,7 +80158,7 @@
         <v>2</v>
       </c>
       <c r="R1423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1424">
@@ -80494,7 +80494,7 @@
         <v>1</v>
       </c>
       <c r="R1429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1430">
@@ -81334,7 +81334,7 @@
         <v>2</v>
       </c>
       <c r="R1444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1445">
@@ -81894,7 +81894,7 @@
         <v>2</v>
       </c>
       <c r="R1454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1455">
@@ -82230,7 +82230,7 @@
         <v>1</v>
       </c>
       <c r="R1460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1461">
@@ -82678,7 +82678,7 @@
         <v>2</v>
       </c>
       <c r="R1468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1469">
@@ -82902,7 +82902,7 @@
         <v>1</v>
       </c>
       <c r="R1472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1473">
@@ -83733,7 +83733,7 @@
         <v>25</v>
       </c>
       <c r="O1487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1487" t="n">
         <v>0</v>
@@ -83741,7 +83741,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83795,7 +83797,549 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>2841</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>2922</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>2838.25</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>2880.60009765625</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>2859.661376953125</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>7714417</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>2880.60009765625</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>2940</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>2687.14990234375</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>2703.949951171875</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>2703.949951171875</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>26729039</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>2722.85009765625</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>2825.949951171875</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>2708.10009765625</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>2749.300048828125</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>2749.300048828125</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>10109115</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>2751.050048828125</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>2897.39990234375</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>2725</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>2887.800048828125</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>2887.800048828125</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>11266492</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>2900</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>2979.60009765625</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>2733.85009765625</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>2749.64990234375</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>2749.64990234375</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>16930904</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>2679.64990234375</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>2765</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>2625.699951171875</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>2749.14990234375</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>2749.14990234375</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>14232476</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>2749.14990234375</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>2845.050048828125</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>2704.10009765625</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>2840.449951171875</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>2840.449951171875</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>10599446</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>2859.89990234375</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>2859.89990234375</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>2724.050048828125</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>2759</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>2759</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>10050779</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>2764.949951171875</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>2827</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>2741.64990234375</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>2805.39990234375</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>2805.39990234375</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>13353744</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>2848.800048828125</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>2848.800048828125</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>2680.10009765625</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>2698.10009765625</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>2698.10009765625</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>10756149</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/M&M.NS.xlsx
+++ b/stock_historical_data/1wk/M&M.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1498"/>
+  <dimension ref="A1:R1527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4331,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4555,10 +4555,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -4667,10 +4667,10 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -5115,10 +5115,10 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -5622,7 +5622,7 @@
         <v>2</v>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -5790,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="R95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -7078,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="R118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -7638,7 +7638,7 @@
         <v>2</v>
       </c>
       <c r="R128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -8534,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="R144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -8870,7 +8870,7 @@
         <v>2</v>
       </c>
       <c r="R150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -9150,7 +9150,7 @@
         <v>1</v>
       </c>
       <c r="R155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -9374,7 +9374,7 @@
         <v>2</v>
       </c>
       <c r="R159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -10158,7 +10158,7 @@
         <v>2</v>
       </c>
       <c r="R173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -10494,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="R179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -10830,7 +10830,7 @@
         <v>1</v>
       </c>
       <c r="R185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -11502,7 +11502,7 @@
         <v>2</v>
       </c>
       <c r="R197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -11894,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="R204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -12286,7 +12286,7 @@
         <v>2</v>
       </c>
       <c r="R211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -12958,7 +12958,7 @@
         <v>2</v>
       </c>
       <c r="R223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -13742,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="R237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -14246,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="R246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -14638,7 +14638,7 @@
         <v>2</v>
       </c>
       <c r="R253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -15030,7 +15030,7 @@
         <v>1</v>
       </c>
       <c r="R260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -15366,7 +15366,7 @@
         <v>2</v>
       </c>
       <c r="R266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -15478,7 +15478,7 @@
         <v>1</v>
       </c>
       <c r="R268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -15926,7 +15926,7 @@
         <v>2</v>
       </c>
       <c r="R276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -16318,7 +16318,7 @@
         <v>1</v>
       </c>
       <c r="R283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -16430,7 +16430,7 @@
         <v>2</v>
       </c>
       <c r="R285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -17662,7 +17662,7 @@
         <v>1</v>
       </c>
       <c r="R307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -18390,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="R320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -18782,7 +18782,7 @@
         <v>2</v>
       </c>
       <c r="R327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -19678,7 +19678,7 @@
         <v>1</v>
       </c>
       <c r="R343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -19958,7 +19958,7 @@
         <v>2</v>
       </c>
       <c r="R348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -21358,7 +21358,7 @@
         <v>2</v>
       </c>
       <c r="R373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -21582,7 +21582,7 @@
         <v>1</v>
       </c>
       <c r="R377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -21862,7 +21862,7 @@
         <v>2</v>
       </c>
       <c r="R382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -22086,7 +22086,7 @@
         <v>1</v>
       </c>
       <c r="R386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -24662,7 +24662,7 @@
         <v>2</v>
       </c>
       <c r="R432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -24942,7 +24942,7 @@
         <v>1</v>
       </c>
       <c r="R437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -25334,7 +25334,7 @@
         <v>2</v>
       </c>
       <c r="R444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -25390,7 +25390,7 @@
         <v>1</v>
       </c>
       <c r="R445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -25782,7 +25782,7 @@
         <v>2</v>
       </c>
       <c r="R452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -26678,7 +26678,7 @@
         <v>1</v>
       </c>
       <c r="R468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -27518,7 +27518,7 @@
         <v>1</v>
       </c>
       <c r="R483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -27574,7 +27574,7 @@
         <v>2</v>
       </c>
       <c r="R484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -28134,7 +28134,7 @@
         <v>1</v>
       </c>
       <c r="R494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -28862,7 +28862,7 @@
         <v>2</v>
       </c>
       <c r="R507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -29422,7 +29422,7 @@
         <v>2</v>
       </c>
       <c r="R517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -29646,7 +29646,7 @@
         <v>1</v>
       </c>
       <c r="R521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -31158,7 +31158,7 @@
         <v>2</v>
       </c>
       <c r="R548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -31438,7 +31438,7 @@
         <v>1</v>
       </c>
       <c r="R553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -31774,7 +31774,7 @@
         <v>1</v>
       </c>
       <c r="R559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -32894,7 +32894,7 @@
         <v>1</v>
       </c>
       <c r="R579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -33174,7 +33174,7 @@
         <v>2</v>
       </c>
       <c r="R584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -33566,7 +33566,7 @@
         <v>1</v>
       </c>
       <c r="R591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -34350,7 +34350,7 @@
         <v>1</v>
       </c>
       <c r="R605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
@@ -34630,7 +34630,7 @@
         <v>2</v>
       </c>
       <c r="R610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -34910,7 +34910,7 @@
         <v>1</v>
       </c>
       <c r="R615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -35358,7 +35358,7 @@
         <v>2</v>
       </c>
       <c r="R623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
@@ -35638,7 +35638,7 @@
         <v>1</v>
       </c>
       <c r="R628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
@@ -35974,7 +35974,7 @@
         <v>2</v>
       </c>
       <c r="R634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
@@ -36142,7 +36142,7 @@
         <v>1</v>
       </c>
       <c r="R637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -36702,7 +36702,7 @@
         <v>2</v>
       </c>
       <c r="R647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -36758,7 +36758,7 @@
         <v>1</v>
       </c>
       <c r="R648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
@@ -37430,7 +37430,7 @@
         <v>1</v>
       </c>
       <c r="R660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
@@ -37990,7 +37990,7 @@
         <v>2</v>
       </c>
       <c r="R670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -38662,7 +38662,7 @@
         <v>1</v>
       </c>
       <c r="R682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
@@ -40174,7 +40174,7 @@
         <v>2</v>
       </c>
       <c r="R709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
@@ -40454,7 +40454,7 @@
         <v>1</v>
       </c>
       <c r="R714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
@@ -40622,7 +40622,7 @@
         <v>2</v>
       </c>
       <c r="R717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
@@ -41910,7 +41910,7 @@
         <v>2</v>
       </c>
       <c r="R740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741">
@@ -42134,7 +42134,7 @@
         <v>1</v>
       </c>
       <c r="R744" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745">
@@ -42358,7 +42358,7 @@
         <v>2</v>
       </c>
       <c r="R748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749">
@@ -43758,7 +43758,7 @@
         <v>1</v>
       </c>
       <c r="R773" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774">
@@ -44318,7 +44318,7 @@
         <v>2</v>
       </c>
       <c r="R783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784">
@@ -44598,7 +44598,7 @@
         <v>1</v>
       </c>
       <c r="R788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789">
@@ -45214,7 +45214,7 @@
         <v>1</v>
       </c>
       <c r="R799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800">
@@ -45662,7 +45662,7 @@
         <v>2</v>
       </c>
       <c r="R807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808">
@@ -46110,7 +46110,7 @@
         <v>1</v>
       </c>
       <c r="R815" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816">
@@ -46502,7 +46502,7 @@
         <v>1</v>
       </c>
       <c r="R822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823">
@@ -47118,7 +47118,7 @@
         <v>2</v>
       </c>
       <c r="R833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834">
@@ -48070,7 +48070,7 @@
         <v>2</v>
       </c>
       <c r="R850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851">
@@ -48574,7 +48574,7 @@
         <v>2</v>
       </c>
       <c r="R859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860">
@@ -48742,7 +48742,7 @@
         <v>1</v>
       </c>
       <c r="R862" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863">
@@ -49302,7 +49302,7 @@
         <v>1</v>
       </c>
       <c r="R872" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873">
@@ -50478,7 +50478,7 @@
         <v>2</v>
       </c>
       <c r="R893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894">
@@ -51150,7 +51150,7 @@
         <v>2</v>
       </c>
       <c r="R905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906">
@@ -51430,7 +51430,7 @@
         <v>1</v>
       </c>
       <c r="R910" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911">
@@ -51710,7 +51710,7 @@
         <v>2</v>
       </c>
       <c r="R915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916">
@@ -52494,7 +52494,7 @@
         <v>1</v>
       </c>
       <c r="R929" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930">
@@ -53110,7 +53110,7 @@
         <v>1</v>
       </c>
       <c r="R940" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941">
@@ -53446,7 +53446,7 @@
         <v>2</v>
       </c>
       <c r="R946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947">
@@ -54678,7 +54678,7 @@
         <v>2</v>
       </c>
       <c r="R968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969">
@@ -55406,7 +55406,7 @@
         <v>2</v>
       </c>
       <c r="R981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982">
@@ -55798,7 +55798,7 @@
         <v>1</v>
       </c>
       <c r="R988" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989">
@@ -56190,7 +56190,7 @@
         <v>2</v>
       </c>
       <c r="R995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996">
@@ -56582,7 +56582,7 @@
         <v>2</v>
       </c>
       <c r="R1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003">
@@ -57366,7 +57366,7 @@
         <v>1</v>
       </c>
       <c r="R1016" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017">
@@ -58150,7 +58150,7 @@
         <v>2</v>
       </c>
       <c r="R1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031">
@@ -59830,7 +59830,7 @@
         <v>2</v>
       </c>
       <c r="R1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061">
@@ -60278,7 +60278,7 @@
         <v>2</v>
       </c>
       <c r="R1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069">
@@ -61118,7 +61118,7 @@
         <v>2</v>
       </c>
       <c r="R1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084">
@@ -62238,7 +62238,7 @@
         <v>1</v>
       </c>
       <c r="R1103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104">
@@ -62742,7 +62742,7 @@
         <v>2</v>
       </c>
       <c r="R1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113">
@@ -63134,7 +63134,7 @@
         <v>1</v>
       </c>
       <c r="R1119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120">
@@ -63582,7 +63582,7 @@
         <v>2</v>
       </c>
       <c r="R1127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128">
@@ -63974,7 +63974,7 @@
         <v>2</v>
       </c>
       <c r="R1134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135">
@@ -64422,7 +64422,7 @@
         <v>1</v>
       </c>
       <c r="R1142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143">
@@ -65094,7 +65094,7 @@
         <v>2</v>
       </c>
       <c r="R1154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155">
@@ -65430,7 +65430,7 @@
         <v>2</v>
       </c>
       <c r="R1160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161">
@@ -65598,7 +65598,7 @@
         <v>1</v>
       </c>
       <c r="R1163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164">
@@ -66382,7 +66382,7 @@
         <v>2</v>
       </c>
       <c r="R1177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178">
@@ -67110,7 +67110,7 @@
         <v>2</v>
       </c>
       <c r="R1190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191">
@@ -67446,7 +67446,7 @@
         <v>1</v>
       </c>
       <c r="R1196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197">
@@ -68006,7 +68006,7 @@
         <v>2</v>
       </c>
       <c r="R1206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207">
@@ -68510,7 +68510,7 @@
         <v>1</v>
       </c>
       <c r="R1215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216">
@@ -68734,7 +68734,7 @@
         <v>2</v>
       </c>
       <c r="R1219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220">
@@ -69182,7 +69182,7 @@
         <v>1</v>
       </c>
       <c r="R1227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228">
@@ -69910,7 +69910,7 @@
         <v>1</v>
       </c>
       <c r="R1240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241">
@@ -70526,7 +70526,7 @@
         <v>2</v>
       </c>
       <c r="R1251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252">
@@ -71310,7 +71310,7 @@
         <v>2</v>
       </c>
       <c r="R1265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266">
@@ -74278,7 +74278,7 @@
         <v>2</v>
       </c>
       <c r="R1318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319">
@@ -74950,7 +74950,7 @@
         <v>1</v>
       </c>
       <c r="R1330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331">
@@ -75118,7 +75118,7 @@
         <v>2</v>
       </c>
       <c r="R1333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334">
@@ -75790,7 +75790,7 @@
         <v>2</v>
       </c>
       <c r="R1345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1346">
@@ -76518,7 +76518,7 @@
         <v>2</v>
       </c>
       <c r="R1358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1359">
@@ -77022,7 +77022,7 @@
         <v>2</v>
       </c>
       <c r="R1367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1368">
@@ -77414,7 +77414,7 @@
         <v>1</v>
       </c>
       <c r="R1374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1375">
@@ -78870,7 +78870,7 @@
         <v>2</v>
       </c>
       <c r="R1400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1401">
@@ -79206,7 +79206,7 @@
         <v>1</v>
       </c>
       <c r="R1406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1407">
@@ -79318,7 +79318,7 @@
         <v>2</v>
       </c>
       <c r="R1408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1409">
@@ -80158,7 +80158,7 @@
         <v>2</v>
       </c>
       <c r="R1423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1424">
@@ -80494,7 +80494,7 @@
         <v>1</v>
       </c>
       <c r="R1429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1430">
@@ -81334,7 +81334,7 @@
         <v>2</v>
       </c>
       <c r="R1444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1445">
@@ -81894,7 +81894,7 @@
         <v>2</v>
       </c>
       <c r="R1454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1455">
@@ -82230,7 +82230,7 @@
         <v>1</v>
       </c>
       <c r="R1460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1461">
@@ -82678,7 +82678,7 @@
         <v>2</v>
       </c>
       <c r="R1468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1469">
@@ -82902,7 +82902,7 @@
         <v>1</v>
       </c>
       <c r="R1472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1473">
@@ -83853,7 +83853,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83907,7 +83909,9 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
@@ -83961,7 +83965,9 @@
       <c r="Q1491" t="n">
         <v>0</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -84015,7 +84021,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
@@ -84069,7 +84077,9 @@
       <c r="Q1493" t="n">
         <v>2</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
@@ -84115,7 +84125,7 @@
         <v>32</v>
       </c>
       <c r="O1494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1494" t="n">
         <v>0</v>
@@ -84123,7 +84133,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -84177,7 +84189,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
@@ -84231,7 +84245,9 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
@@ -84285,7 +84301,9 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
@@ -84339,7 +84357,1517 @@
       <c r="Q1498" t="n">
         <v>0</v>
       </c>
-      <c r="R1498" t="inlineStr"/>
+      <c r="R1498" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>2688.14990234375</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>2758.550048828125</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>2635.60009765625</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>2739.10009765625</v>
+      </c>
+      <c r="F1499" t="inlineStr"/>
+      <c r="G1499" t="n">
+        <v>11170070</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>2740.199951171875</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>2960</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>2732.050048828125</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>2950.85009765625</v>
+      </c>
+      <c r="F1500" t="inlineStr"/>
+      <c r="G1500" t="n">
+        <v>20449319</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>2962.75</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>3222.10009765625</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>2956.14990234375</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>3183.64990234375</v>
+      </c>
+      <c r="F1501" t="inlineStr"/>
+      <c r="G1501" t="n">
+        <v>23399439</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>3163.14990234375</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>3185.449951171875</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>3009.5</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>3017.449951171875</v>
+      </c>
+      <c r="F1502" t="inlineStr"/>
+      <c r="G1502" t="n">
+        <v>15101184</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>3028</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>3220.300048828125</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>2982.89990234375</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>3134.35009765625</v>
+      </c>
+      <c r="F1503" t="inlineStr"/>
+      <c r="G1503" t="n">
+        <v>15385184</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>3151</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>3192.949951171875</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>2914.699951171875</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>2964.25</v>
+      </c>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="n">
+        <v>13672933</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>2959.75</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>3008.949951171875</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>2679.300048828125</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>2720.85009765625</v>
+      </c>
+      <c r="F1505" t="inlineStr"/>
+      <c r="G1505" t="n">
+        <v>25694185</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>2730</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>2840.89990234375</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>2669.050048828125</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>2817.64990234375</v>
+      </c>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="n">
+        <v>16543451</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>2804.5</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>2990.949951171875</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>2804.5</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>2974.89990234375</v>
+      </c>
+      <c r="F1507" t="inlineStr"/>
+      <c r="G1507" t="n">
+        <v>22731354</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>2962.35009765625</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>3009.60009765625</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>2736.25</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>2807.199951171875</v>
+      </c>
+      <c r="F1508" t="inlineStr"/>
+      <c r="G1508" t="n">
+        <v>11470914</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>2844</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>3063.5</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>2800.050048828125</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>3012.949951171875</v>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="n">
+        <v>16284689</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>3075</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>3149.64990234375</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>2892</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>2966.10009765625</v>
+      </c>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="n">
+        <v>20038429</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>2984</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>3099</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>2961.89990234375</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>3073</v>
+      </c>
+      <c r="F1511" t="inlineStr"/>
+      <c r="G1511" t="n">
+        <v>14477543</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>3063.39990234375</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>3115</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>3081.39990234375</v>
+      </c>
+      <c r="F1512" t="inlineStr"/>
+      <c r="G1512" t="n">
+        <v>10777799</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>3089.39990234375</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>3093.75</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>2886.35009765625</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>2906.35009765625</v>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="n">
+        <v>17297525</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>2918</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>3064</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>2891.10009765625</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>3049.449951171875</v>
+      </c>
+      <c r="F1514" t="inlineStr"/>
+      <c r="G1514" t="n">
+        <v>8453532</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>3028.050048828125</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>3237.050048828125</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>2971.199951171875</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>3190.550048828125</v>
+      </c>
+      <c r="F1515" t="inlineStr"/>
+      <c r="G1515" t="n">
+        <v>12114607</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>3209.60009765625</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>3235</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>3055</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>3092.85009765625</v>
+      </c>
+      <c r="F1516" t="inlineStr"/>
+      <c r="G1516" t="n">
+        <v>12126144</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>3053.64990234375</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>3078.449951171875</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>2903.10009765625</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>2917.35009765625</v>
+      </c>
+      <c r="F1517" t="inlineStr"/>
+      <c r="G1517" t="n">
+        <v>12100906</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>2910</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>2935.949951171875</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>2790</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>2801.39990234375</v>
+      </c>
+      <c r="F1518" t="inlineStr"/>
+      <c r="G1518" t="n">
+        <v>14735865</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>2772.300048828125</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>3098.949951171875</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>2754.14990234375</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>3076.75</v>
+      </c>
+      <c r="F1519" t="inlineStr"/>
+      <c r="G1519" t="n">
+        <v>14405788</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>3056.60009765625</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>3270.550048828125</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>3044.75</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>3198.449951171875</v>
+      </c>
+      <c r="F1520" t="inlineStr"/>
+      <c r="G1520" t="n">
+        <v>16922200</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>3209.199951171875</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>3270.949951171875</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>2907.050048828125</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>2942.60009765625</v>
+      </c>
+      <c r="F1521" t="inlineStr"/>
+      <c r="G1521" t="n">
+        <v>15374535</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>2940.800048828125</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>2955</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>2653.35009765625</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>2669.35009765625</v>
+      </c>
+      <c r="F1522" t="inlineStr"/>
+      <c r="G1522" t="n">
+        <v>22486662</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>2669</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>2840</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>2572.199951171875</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>2585.10009765625</v>
+      </c>
+      <c r="F1523" t="inlineStr"/>
+      <c r="G1523" t="n">
+        <v>21303191</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>2613.800048828125</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>2766.85009765625</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>2550</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>2727.85009765625</v>
+      </c>
+      <c r="F1524" t="inlineStr"/>
+      <c r="G1524" t="n">
+        <v>15584430</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>2695</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>2734.64990234375</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>2613.14990234375</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>2643.5</v>
+      </c>
+      <c r="F1525" t="inlineStr"/>
+      <c r="G1525" t="n">
+        <v>12030654</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>2635</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>2893</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>2635</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>2801.85009765625</v>
+      </c>
+      <c r="F1526" t="inlineStr"/>
+      <c r="G1526" t="n">
+        <v>11145225</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>2815.300048828125</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>2822.14990234375</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>2635</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>2665.800048828125</v>
+      </c>
+      <c r="F1527" t="inlineStr"/>
+      <c r="G1527" t="n">
+        <v>22483449</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
